--- a/mbs-perturbation/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4938271604938272</v>
+        <v>0.8363636363636364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7647569444444444</v>
+        <v>0.9340277777777779</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.71875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.825</v>
+        <v>0.8288288288288289</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968971631205673</v>
+        <v>0.8561613475177305</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9591836734693877</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9782801418439716</v>
+        <v>0.9800531914893617</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.875</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9818262411347518</v>
+        <v>0.9725177304964538</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.2545454545454546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6739804964539008</v>
+        <v>0.5467641843971631</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9083976931153011</v>
+        <v>0.8833192673168291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6195921985815602</v>
+        <v>0.7911347517730496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6819499991040872</v>
+        <v>0.7664475839475838</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8791481973995271</v>
+        <v>0.8579048463356974</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/svm/nearmiss/mega-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8363636363636364</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9340277777777779</v>
+        <v>0.4328752642706132</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.71875</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8288288288288289</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8561613475177305</v>
+        <v>0.7050739957716702</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.7526881720430106</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9800531914893617</v>
+        <v>0.7825052854122622</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9725177304964538</v>
+        <v>0.6926532769556026</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5467641843971631</v>
+        <v>0.828015143320714</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8833192673168291</v>
+        <v>0.7685559330115025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7911347517730496</v>
+        <v>0.6033826638477802</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7664475839475838</v>
+        <v>0.6464688426802359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8579048463356974</v>
+        <v>0.6882245931461725</v>
       </c>
     </row>
   </sheetData>
